--- a/SAEoutputSP500.xlsx
+++ b/SAEoutputSP500.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:K2079"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
